--- a/src/main/resources/170-microservices-event-sourcing/user-service_attribute.xlsx
+++ b/src/main/resources/170-microservices-event-sourcing/user-service_attribute.xlsx
@@ -300,10 +300,10 @@
     <t>login()</t>
   </si>
   <si>
-    <t>login(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
+    <t>login(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.ui.Model)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.ui.Model</t>
   </si>
 </sst>
 </file>
